--- a/StructureDefinition-ext-R5-MA.per.actor.xlsx
+++ b/StructureDefinition-ext-R5-MA.per.actor.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:concept.id</t>
@@ -462,7 +462,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -823,7 +823,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.16796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
